--- a/DeviceAdd.xlsx
+++ b/DeviceAdd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JavaSE\Materials\TestNG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C91B45-FEDA-40DF-8119-73C71C98150E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B611A9CB-BA71-4895-9582-BD723937657B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="2160" windowWidth="14400" windowHeight="7360" xr2:uid="{885DFA66-5F03-4C63-A1F5-20EDE8771EE3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{885DFA66-5F03-4C63-A1F5-20EDE8771EE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -433,7 +433,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/DeviceAdd.xlsx
+++ b/DeviceAdd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JavaSE\Materials\TestNG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B611A9CB-BA71-4895-9582-BD723937657B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C91B45-FEDA-40DF-8119-73C71C98150E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{885DFA66-5F03-4C63-A1F5-20EDE8771EE3}"/>
+    <workbookView xWindow="2160" yWindow="2160" windowWidth="14400" windowHeight="7360" xr2:uid="{885DFA66-5F03-4C63-A1F5-20EDE8771EE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -433,7 +433,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
